--- a/Data/EC/NIT-9010085797.xlsx
+++ b/Data/EC/NIT-9010085797.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C921B9E-418F-49A6-AC9C-7C3B03512AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8027554C-09DD-4C28-8D05-DAA1BD0C7F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{418D12C2-8302-45DD-BF44-DBDB8F69093E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D37FC29E-3E1A-489B-A234-AC4193BCC5F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,159 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128059077</t>
+  </si>
+  <si>
+    <t>FERNEIS ENRIQUE VERGARA TAMARA</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>8981557</t>
+  </si>
+  <si>
+    <t>OSWALDO ENRIQUE PUERTA HURTADO</t>
+  </si>
+  <si>
+    <t>1047473695</t>
+  </si>
+  <si>
+    <t>RAFAEL ANDRES MANRIQUE MERCADO</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>1192746940</t>
+  </si>
+  <si>
+    <t>LUIS JOSE RAMOS CARMONA</t>
+  </si>
+  <si>
+    <t>1047398887</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES NORIEGA PEÑA</t>
+  </si>
+  <si>
     <t>1047379762</t>
   </si>
   <si>
@@ -74,184 +227,31 @@
     <t>2102</t>
   </si>
   <si>
+    <t>1143147260</t>
+  </si>
+  <si>
+    <t>MARCOS ANTONIO PARRA TOVAR</t>
+  </si>
+  <si>
+    <t>1137219480</t>
+  </si>
+  <si>
+    <t>YOVANIS ALEXANDER AHUMEDO JULIO</t>
+  </si>
+  <si>
+    <t>1143370668</t>
+  </si>
+  <si>
+    <t>ISRAEL BLANCO CARDENAS</t>
+  </si>
+  <si>
     <t>20292782</t>
   </si>
   <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1047473695</t>
-  </si>
-  <si>
-    <t>RAFAEL ANDRES MANRIQUE MERCADO</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1047398887</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES NORIEGA PEÑA</t>
-  </si>
-  <si>
-    <t>1128059077</t>
-  </si>
-  <si>
-    <t>FERNEIS ENRIQUE VERGARA TAMARA</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>1143370668</t>
-  </si>
-  <si>
-    <t>ISRAEL BLANCO CARDENAS</t>
-  </si>
-  <si>
     <t>1002247347</t>
   </si>
   <si>
     <t>YULIAN FLOREZ GIRADO</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>1137219480</t>
-  </si>
-  <si>
-    <t>YOVANIS ALEXANDER AHUMEDO JULIO</t>
-  </si>
-  <si>
-    <t>1192746940</t>
-  </si>
-  <si>
-    <t>LUIS JOSE RAMOS CARMONA</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1143147260</t>
-  </si>
-  <si>
-    <t>MARCOS ANTONIO PARRA TOVAR</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>8981557</t>
-  </si>
-  <si>
-    <t>OSWALDO ENRIQUE PUERTA HURTADO</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -295,7 +295,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900A5781-20DF-EF49-5E57-808B3B1F1922}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F360969E-B294-0F08-6138-3348C5A03FDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,28 +1016,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88D62F1-FC94-4419-A86A-01FBECCE5758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8957484E-7F09-487A-B5AD-823B80E36591}">
   <dimension ref="B2:J296"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1050,7 +1050,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1061,7 +1061,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1072,7 +1072,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1083,8 +1083,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>73</v>
       </c>
@@ -1099,8 +1099,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1115,8 +1115,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
@@ -1131,8 +1131,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>75</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>18170</v>
+        <v>27861</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1203,21 +1203,21 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>18170</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1226,7 +1226,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1249,18 +1249,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1272,7 +1272,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1295,15 +1295,15 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1318,7 +1318,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1341,44 +1341,44 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F23" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>738000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
         <v>908526</v>
@@ -1387,18 +1387,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1410,18 +1410,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1433,7 +1433,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1456,18 +1456,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1479,21 +1479,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F29" s="18">
-        <v>8480</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
         <v>908526</v>
@@ -1502,21 +1502,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F30" s="18">
-        <v>8480</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
         <v>908526</v>
@@ -1525,18 +1525,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1548,15 +1548,15 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>27</v>
@@ -1571,18 +1571,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1594,18 +1594,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1617,21 +1617,21 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F35" s="18">
-        <v>21804</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
         <v>908526</v>
@@ -1640,7 +1640,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1663,15 +1663,15 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
@@ -1686,18 +1686,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1709,7 +1709,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
@@ -1732,18 +1732,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1755,18 +1755,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
@@ -1778,7 +1778,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
@@ -1801,18 +1801,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>36341</v>
@@ -1824,18 +1824,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1847,18 +1847,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
@@ -1870,18 +1870,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>36341</v>
@@ -1893,18 +1893,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1916,18 +1916,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1939,18 +1939,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1962,18 +1962,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1985,7 +1985,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -2008,18 +2008,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -2031,18 +2031,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -2054,21 +2054,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G54" s="18">
         <v>908526</v>
@@ -2077,21 +2077,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F55" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G55" s="18">
         <v>908526</v>
@@ -2100,18 +2100,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2123,18 +2123,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2146,18 +2146,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2169,18 +2169,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2192,18 +2192,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2215,18 +2215,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2238,18 +2238,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2261,18 +2261,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2284,18 +2284,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2307,18 +2307,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2330,18 +2330,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2353,18 +2353,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2376,18 +2376,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2399,18 +2399,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2422,18 +2422,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F70" s="18">
         <v>36341</v>
@@ -2445,18 +2445,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2468,18 +2468,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F72" s="18">
         <v>36341</v>
@@ -2491,18 +2491,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F73" s="18">
         <v>36341</v>
@@ -2514,18 +2514,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F74" s="18">
         <v>36341</v>
@@ -2537,18 +2537,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D75" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>36341</v>
@@ -2560,18 +2560,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F76" s="18">
         <v>36341</v>
@@ -2583,18 +2583,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F77" s="18">
         <v>36341</v>
@@ -2606,18 +2606,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F78" s="18">
         <v>36341</v>
@@ -2629,18 +2629,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F79" s="18">
         <v>36341</v>
@@ -2652,18 +2652,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
         <v>36341</v>
@@ -2675,18 +2675,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F81" s="18">
         <v>36341</v>
@@ -2698,18 +2698,18 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F82" s="18">
         <v>36341</v>
@@ -2721,18 +2721,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F83" s="18">
         <v>36341</v>
@@ -2744,18 +2744,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F84" s="18">
         <v>36341</v>
@@ -2767,18 +2767,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F85" s="18">
         <v>36341</v>
@@ -2790,21 +2790,21 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G86" s="18">
         <v>908526</v>
@@ -2813,18 +2813,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F87" s="18">
         <v>36341</v>
@@ -2836,18 +2836,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F88" s="18">
         <v>36341</v>
@@ -2859,18 +2859,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F89" s="18">
         <v>36341</v>
@@ -2882,18 +2882,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F90" s="18">
         <v>36341</v>
@@ -2905,18 +2905,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F91" s="18">
         <v>36341</v>
@@ -2928,18 +2928,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F92" s="18">
         <v>36341</v>
@@ -2951,18 +2951,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F93" s="18">
         <v>36341</v>
@@ -2974,18 +2974,18 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F94" s="18">
         <v>36341</v>
@@ -2997,18 +2997,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F95" s="18">
         <v>36341</v>
@@ -3020,18 +3020,18 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F96" s="18">
         <v>36341</v>
@@ -3043,18 +3043,18 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F97" s="18">
         <v>36341</v>
@@ -3066,18 +3066,18 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F98" s="18">
         <v>36341</v>
@@ -3089,18 +3089,18 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F99" s="18">
         <v>36341</v>
@@ -3112,18 +3112,18 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F100" s="18">
         <v>36341</v>
@@ -3135,18 +3135,18 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F101" s="18">
         <v>36341</v>
@@ -3158,18 +3158,18 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F102" s="18">
         <v>36341</v>
@@ -3181,18 +3181,18 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F103" s="18">
         <v>36341</v>
@@ -3204,18 +3204,18 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F104" s="18">
         <v>36341</v>
@@ -3227,18 +3227,18 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F105" s="18">
         <v>36341</v>
@@ -3250,18 +3250,18 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F106" s="18">
         <v>36341</v>
@@ -3273,18 +3273,18 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F107" s="18">
         <v>36341</v>
@@ -3296,18 +3296,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F108" s="18">
         <v>36341</v>
@@ -3319,18 +3319,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F109" s="18">
         <v>36341</v>
@@ -3342,18 +3342,18 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F110" s="18">
         <v>36341</v>
@@ -3365,18 +3365,18 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F111" s="18">
         <v>36341</v>
@@ -3388,18 +3388,18 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F112" s="18">
         <v>36341</v>
@@ -3411,18 +3411,18 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F113" s="18">
         <v>36341</v>
@@ -3434,18 +3434,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F114" s="18">
         <v>36341</v>
@@ -3457,18 +3457,18 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F115" s="18">
         <v>36341</v>
@@ -3480,21 +3480,21 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F116" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G116" s="18">
         <v>908526</v>
@@ -3503,18 +3503,18 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F117" s="18">
         <v>36341</v>
@@ -3526,18 +3526,18 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F118" s="18">
         <v>36341</v>
@@ -3549,18 +3549,18 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F119" s="18">
         <v>36341</v>
@@ -3572,18 +3572,18 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F120" s="18">
         <v>36341</v>
@@ -3595,18 +3595,18 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F121" s="18">
         <v>36341</v>
@@ -3618,15 +3618,15 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>47</v>
@@ -3641,15 +3641,15 @@
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>48</v>
@@ -3664,18 +3664,18 @@
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F124" s="18">
         <v>36341</v>
@@ -3687,18 +3687,18 @@
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F125" s="18">
         <v>36341</v>
@@ -3710,18 +3710,18 @@
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F126" s="18">
         <v>36341</v>
@@ -3733,21 +3733,21 @@
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F127" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G127" s="18">
         <v>908526</v>
@@ -3756,18 +3756,18 @@
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F128" s="18">
         <v>36341</v>
@@ -3779,18 +3779,18 @@
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F129" s="18">
         <v>36341</v>
@@ -3802,18 +3802,18 @@
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F130" s="18">
         <v>36341</v>
@@ -3825,18 +3825,18 @@
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F131" s="18">
         <v>36341</v>
@@ -3848,18 +3848,18 @@
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F132" s="18">
         <v>36341</v>
@@ -3871,18 +3871,18 @@
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F133" s="18">
         <v>36341</v>
@@ -3894,18 +3894,18 @@
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F134" s="18">
         <v>36341</v>
@@ -3917,18 +3917,18 @@
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F135" s="18">
         <v>36341</v>
@@ -3940,18 +3940,18 @@
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F136" s="18">
         <v>36341</v>
@@ -3963,18 +3963,18 @@
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F137" s="18">
         <v>36341</v>
@@ -3986,18 +3986,18 @@
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F138" s="18">
         <v>36341</v>
@@ -4009,21 +4009,21 @@
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F139" s="18">
-        <v>36341</v>
+        <v>21804</v>
       </c>
       <c r="G139" s="18">
         <v>908526</v>
@@ -4032,44 +4032,44 @@
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F140" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G140" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F141" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G141" s="18">
         <v>908526</v>
@@ -4078,18 +4078,18 @@
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F142" s="18">
         <v>36341</v>
@@ -4101,18 +4101,18 @@
       <c r="I142" s="19"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F143" s="18">
         <v>36341</v>
@@ -4124,18 +4124,18 @@
       <c r="I143" s="19"/>
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F144" s="18">
         <v>36341</v>
@@ -4147,18 +4147,18 @@
       <c r="I144" s="19"/>
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F145" s="18">
         <v>36341</v>
@@ -4170,18 +4170,18 @@
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F146" s="18">
         <v>36341</v>
@@ -4193,18 +4193,18 @@
       <c r="I146" s="19"/>
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F147" s="18">
         <v>36341</v>
@@ -4216,18 +4216,18 @@
       <c r="I147" s="19"/>
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F148" s="18">
         <v>36341</v>
@@ -4239,18 +4239,18 @@
       <c r="I148" s="19"/>
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F149" s="18">
         <v>36341</v>
@@ -4262,18 +4262,18 @@
       <c r="I149" s="19"/>
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F150" s="18">
         <v>36341</v>
@@ -4285,18 +4285,18 @@
       <c r="I150" s="19"/>
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F151" s="18">
         <v>36341</v>
@@ -4308,18 +4308,18 @@
       <c r="I151" s="19"/>
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F152" s="18">
         <v>36341</v>
@@ -4331,18 +4331,18 @@
       <c r="I152" s="19"/>
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F153" s="18">
         <v>36341</v>
@@ -4354,18 +4354,18 @@
       <c r="I153" s="19"/>
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F154" s="18">
         <v>36341</v>
@@ -4377,18 +4377,18 @@
       <c r="I154" s="19"/>
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F155" s="18">
         <v>36341</v>
@@ -4400,18 +4400,18 @@
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F156" s="18">
         <v>36341</v>
@@ -4423,18 +4423,18 @@
       <c r="I156" s="19"/>
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F157" s="18">
         <v>36341</v>
@@ -4446,18 +4446,18 @@
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F158" s="18">
         <v>36341</v>
@@ -4469,18 +4469,18 @@
       <c r="I158" s="19"/>
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F159" s="18">
         <v>36341</v>
@@ -4492,18 +4492,18 @@
       <c r="I159" s="19"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F160" s="18">
         <v>36341</v>
@@ -4515,18 +4515,18 @@
       <c r="I160" s="19"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F161" s="18">
         <v>36341</v>
@@ -4538,18 +4538,18 @@
       <c r="I161" s="19"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F162" s="18">
         <v>36341</v>
@@ -4561,18 +4561,18 @@
       <c r="I162" s="19"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F163" s="18">
         <v>36341</v>
@@ -4584,18 +4584,18 @@
       <c r="I163" s="19"/>
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E164" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F164" s="18">
         <v>36341</v>
@@ -4607,18 +4607,18 @@
       <c r="I164" s="19"/>
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F165" s="18">
         <v>36341</v>
@@ -4630,18 +4630,18 @@
       <c r="I165" s="19"/>
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F166" s="18">
         <v>36341</v>
@@ -4653,18 +4653,18 @@
       <c r="I166" s="19"/>
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F167" s="18">
         <v>36341</v>
@@ -4676,18 +4676,18 @@
       <c r="I167" s="19"/>
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F168" s="18">
         <v>36341</v>
@@ -4699,18 +4699,18 @@
       <c r="I168" s="19"/>
       <c r="J168" s="20"/>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F169" s="18">
         <v>36341</v>
@@ -4722,18 +4722,18 @@
       <c r="I169" s="19"/>
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F170" s="18">
         <v>36341</v>
@@ -4745,18 +4745,18 @@
       <c r="I170" s="19"/>
       <c r="J170" s="20"/>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F171" s="18">
         <v>36341</v>
@@ -4768,18 +4768,18 @@
       <c r="I171" s="19"/>
       <c r="J171" s="20"/>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F172" s="18">
         <v>36341</v>
@@ -4791,18 +4791,18 @@
       <c r="I172" s="19"/>
       <c r="J172" s="20"/>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F173" s="18">
         <v>36341</v>
@@ -4814,18 +4814,18 @@
       <c r="I173" s="19"/>
       <c r="J173" s="20"/>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F174" s="18">
         <v>36341</v>
@@ -4837,18 +4837,18 @@
       <c r="I174" s="19"/>
       <c r="J174" s="20"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F175" s="18">
         <v>36341</v>
@@ -4860,18 +4860,18 @@
       <c r="I175" s="19"/>
       <c r="J175" s="20"/>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F176" s="18">
         <v>36341</v>
@@ -4883,18 +4883,18 @@
       <c r="I176" s="19"/>
       <c r="J176" s="20"/>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F177" s="18">
         <v>36341</v>
@@ -4906,18 +4906,18 @@
       <c r="I177" s="19"/>
       <c r="J177" s="20"/>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F178" s="18">
         <v>36341</v>
@@ -4929,18 +4929,18 @@
       <c r="I178" s="19"/>
       <c r="J178" s="20"/>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F179" s="18">
         <v>36341</v>
@@ -4952,18 +4952,18 @@
       <c r="I179" s="19"/>
       <c r="J179" s="20"/>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F180" s="18">
         <v>36341</v>
@@ -4975,18 +4975,18 @@
       <c r="I180" s="19"/>
       <c r="J180" s="20"/>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F181" s="18">
         <v>36341</v>
@@ -4998,21 +4998,21 @@
       <c r="I181" s="19"/>
       <c r="J181" s="20"/>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F182" s="18">
-        <v>36341</v>
+        <v>18170</v>
       </c>
       <c r="G182" s="18">
         <v>908526</v>
@@ -5021,21 +5021,21 @@
       <c r="I182" s="19"/>
       <c r="J182" s="20"/>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F183" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G183" s="18">
         <v>908526</v>
@@ -5044,18 +5044,18 @@
       <c r="I183" s="19"/>
       <c r="J183" s="20"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F184" s="18">
         <v>36341</v>
@@ -5067,18 +5067,18 @@
       <c r="I184" s="19"/>
       <c r="J184" s="20"/>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F185" s="18">
         <v>36341</v>
@@ -5090,18 +5090,18 @@
       <c r="I185" s="19"/>
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F186" s="18">
         <v>36341</v>
@@ -5113,18 +5113,18 @@
       <c r="I186" s="19"/>
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D187" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F187" s="18">
         <v>36341</v>
@@ -5136,18 +5136,18 @@
       <c r="I187" s="19"/>
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F188" s="18">
         <v>36341</v>
@@ -5159,18 +5159,18 @@
       <c r="I188" s="19"/>
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F189" s="18">
         <v>36341</v>
@@ -5182,18 +5182,18 @@
       <c r="I189" s="19"/>
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F190" s="18">
         <v>36341</v>
@@ -5205,18 +5205,18 @@
       <c r="I190" s="19"/>
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F191" s="18">
         <v>36341</v>
@@ -5228,18 +5228,18 @@
       <c r="I191" s="19"/>
       <c r="J191" s="20"/>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F192" s="18">
         <v>36341</v>
@@ -5251,18 +5251,18 @@
       <c r="I192" s="19"/>
       <c r="J192" s="20"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D193" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="F193" s="18">
         <v>36341</v>
@@ -5274,18 +5274,18 @@
       <c r="I193" s="19"/>
       <c r="J193" s="20"/>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F194" s="18">
         <v>36341</v>
@@ -5297,18 +5297,18 @@
       <c r="I194" s="19"/>
       <c r="J194" s="20"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F195" s="18">
         <v>36341</v>
@@ -5320,18 +5320,18 @@
       <c r="I195" s="19"/>
       <c r="J195" s="20"/>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="F196" s="18">
         <v>36341</v>
@@ -5343,18 +5343,18 @@
       <c r="I196" s="19"/>
       <c r="J196" s="20"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F197" s="18">
         <v>36341</v>
@@ -5366,18 +5366,18 @@
       <c r="I197" s="19"/>
       <c r="J197" s="20"/>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F198" s="18">
         <v>36341</v>
@@ -5389,18 +5389,18 @@
       <c r="I198" s="19"/>
       <c r="J198" s="20"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F199" s="18">
         <v>36341</v>
@@ -5412,18 +5412,18 @@
       <c r="I199" s="19"/>
       <c r="J199" s="20"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="F200" s="18">
         <v>36341</v>
@@ -5435,18 +5435,18 @@
       <c r="I200" s="19"/>
       <c r="J200" s="20"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F201" s="18">
         <v>36341</v>
@@ -5458,18 +5458,18 @@
       <c r="I201" s="19"/>
       <c r="J201" s="20"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F202" s="18">
         <v>36341</v>
@@ -5481,18 +5481,18 @@
       <c r="I202" s="19"/>
       <c r="J202" s="20"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F203" s="18">
         <v>36341</v>
@@ -5504,18 +5504,18 @@
       <c r="I203" s="19"/>
       <c r="J203" s="20"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F204" s="18">
         <v>36341</v>
@@ -5527,18 +5527,18 @@
       <c r="I204" s="19"/>
       <c r="J204" s="20"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F205" s="18">
         <v>36341</v>
@@ -5550,18 +5550,18 @@
       <c r="I205" s="19"/>
       <c r="J205" s="20"/>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F206" s="18">
         <v>36341</v>
@@ -5573,18 +5573,18 @@
       <c r="I206" s="19"/>
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="2:10">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D207" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="F207" s="18">
         <v>36341</v>
@@ -5596,18 +5596,18 @@
       <c r="I207" s="19"/>
       <c r="J207" s="20"/>
     </row>
-    <row r="208" spans="2:10">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F208" s="18">
         <v>36341</v>
@@ -5619,18 +5619,18 @@
       <c r="I208" s="19"/>
       <c r="J208" s="20"/>
     </row>
-    <row r="209" spans="2:10">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F209" s="18">
         <v>36341</v>
@@ -5642,18 +5642,18 @@
       <c r="I209" s="19"/>
       <c r="J209" s="20"/>
     </row>
-    <row r="210" spans="2:10">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F210" s="18">
         <v>36341</v>
@@ -5665,18 +5665,18 @@
       <c r="I210" s="19"/>
       <c r="J210" s="20"/>
     </row>
-    <row r="211" spans="2:10">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F211" s="18">
         <v>36341</v>
@@ -5688,18 +5688,18 @@
       <c r="I211" s="19"/>
       <c r="J211" s="20"/>
     </row>
-    <row r="212" spans="2:10">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F212" s="18">
         <v>36341</v>
@@ -5711,18 +5711,18 @@
       <c r="I212" s="19"/>
       <c r="J212" s="20"/>
     </row>
-    <row r="213" spans="2:10">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F213" s="18">
         <v>36341</v>
@@ -5734,18 +5734,18 @@
       <c r="I213" s="19"/>
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="2:10">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F214" s="18">
         <v>36341</v>
@@ -5757,18 +5757,18 @@
       <c r="I214" s="19"/>
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="2:10">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F215" s="18">
         <v>36341</v>
@@ -5780,18 +5780,18 @@
       <c r="I215" s="19"/>
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="2:10">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F216" s="18">
         <v>36341</v>
@@ -5803,18 +5803,18 @@
       <c r="I216" s="19"/>
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="2:10">
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F217" s="18">
         <v>36341</v>
@@ -5826,21 +5826,21 @@
       <c r="I217" s="19"/>
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="2:10">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F218" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G218" s="18">
         <v>908526</v>
@@ -5849,18 +5849,18 @@
       <c r="I218" s="19"/>
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="2:10">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F219" s="18">
         <v>36341</v>
@@ -5872,18 +5872,18 @@
       <c r="I219" s="19"/>
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="2:10">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F220" s="18">
         <v>36341</v>
@@ -5895,18 +5895,18 @@
       <c r="I220" s="19"/>
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="2:10">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F221" s="18">
         <v>36341</v>
@@ -5918,18 +5918,18 @@
       <c r="I221" s="19"/>
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="2:10">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F222" s="18">
         <v>36341</v>
@@ -5941,18 +5941,18 @@
       <c r="I222" s="19"/>
       <c r="J222" s="20"/>
     </row>
-    <row r="223" spans="2:10">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F223" s="18">
         <v>36341</v>
@@ -5964,18 +5964,18 @@
       <c r="I223" s="19"/>
       <c r="J223" s="20"/>
     </row>
-    <row r="224" spans="2:10">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F224" s="18">
         <v>36341</v>
@@ -5987,18 +5987,18 @@
       <c r="I224" s="19"/>
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="2:10">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F225" s="18">
         <v>36341</v>
@@ -6010,18 +6010,18 @@
       <c r="I225" s="19"/>
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="2:10">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F226" s="18">
         <v>36341</v>
@@ -6033,18 +6033,18 @@
       <c r="I226" s="19"/>
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="2:10">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F227" s="18">
         <v>36341</v>
@@ -6056,18 +6056,18 @@
       <c r="I227" s="19"/>
       <c r="J227" s="20"/>
     </row>
-    <row r="228" spans="2:10">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F228" s="18">
         <v>36341</v>
@@ -6079,18 +6079,18 @@
       <c r="I228" s="19"/>
       <c r="J228" s="20"/>
     </row>
-    <row r="229" spans="2:10">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F229" s="18">
         <v>36341</v>
@@ -6102,18 +6102,18 @@
       <c r="I229" s="19"/>
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="2:10">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F230" s="18">
         <v>36341</v>
@@ -6125,18 +6125,18 @@
       <c r="I230" s="19"/>
       <c r="J230" s="20"/>
     </row>
-    <row r="231" spans="2:10">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F231" s="18">
         <v>36341</v>
@@ -6148,18 +6148,18 @@
       <c r="I231" s="19"/>
       <c r="J231" s="20"/>
     </row>
-    <row r="232" spans="2:10">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F232" s="18">
         <v>36341</v>
@@ -6171,18 +6171,18 @@
       <c r="I232" s="19"/>
       <c r="J232" s="20"/>
     </row>
-    <row r="233" spans="2:10">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F233" s="18">
         <v>36341</v>
@@ -6194,18 +6194,18 @@
       <c r="I233" s="19"/>
       <c r="J233" s="20"/>
     </row>
-    <row r="234" spans="2:10">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F234" s="18">
         <v>36341</v>
@@ -6217,18 +6217,18 @@
       <c r="I234" s="19"/>
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="2:10">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B235" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F235" s="18">
         <v>36341</v>
@@ -6240,18 +6240,18 @@
       <c r="I235" s="19"/>
       <c r="J235" s="20"/>
     </row>
-    <row r="236" spans="2:10">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B236" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F236" s="18">
         <v>36341</v>
@@ -6263,18 +6263,18 @@
       <c r="I236" s="19"/>
       <c r="J236" s="20"/>
     </row>
-    <row r="237" spans="2:10">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B237" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F237" s="18">
         <v>36341</v>
@@ -6286,18 +6286,18 @@
       <c r="I237" s="19"/>
       <c r="J237" s="20"/>
     </row>
-    <row r="238" spans="2:10">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B238" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F238" s="18">
         <v>36341</v>
@@ -6309,18 +6309,18 @@
       <c r="I238" s="19"/>
       <c r="J238" s="20"/>
     </row>
-    <row r="239" spans="2:10">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B239" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F239" s="18">
         <v>36341</v>
@@ -6332,18 +6332,18 @@
       <c r="I239" s="19"/>
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="2:10">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B240" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F240" s="18">
         <v>36341</v>
@@ -6355,18 +6355,18 @@
       <c r="I240" s="19"/>
       <c r="J240" s="20"/>
     </row>
-    <row r="241" spans="2:10">
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F241" s="18">
         <v>36341</v>
@@ -6378,18 +6378,18 @@
       <c r="I241" s="19"/>
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="2:10">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F242" s="18">
         <v>36341</v>
@@ -6401,18 +6401,18 @@
       <c r="I242" s="19"/>
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="2:10">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F243" s="18">
         <v>36341</v>
@@ -6424,18 +6424,18 @@
       <c r="I243" s="19"/>
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="2:10">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F244" s="18">
         <v>36341</v>
@@ -6447,18 +6447,18 @@
       <c r="I244" s="19"/>
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="2:10">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F245" s="18">
         <v>36341</v>
@@ -6470,18 +6470,18 @@
       <c r="I245" s="19"/>
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="2:10">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F246" s="18">
         <v>36341</v>
@@ -6493,18 +6493,18 @@
       <c r="I246" s="19"/>
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="2:10">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B247" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F247" s="18">
         <v>36341</v>
@@ -6516,18 +6516,18 @@
       <c r="I247" s="19"/>
       <c r="J247" s="20"/>
     </row>
-    <row r="248" spans="2:10">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B248" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F248" s="18">
         <v>36341</v>
@@ -6539,18 +6539,18 @@
       <c r="I248" s="19"/>
       <c r="J248" s="20"/>
     </row>
-    <row r="249" spans="2:10">
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B249" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F249" s="18">
         <v>36341</v>
@@ -6562,18 +6562,18 @@
       <c r="I249" s="19"/>
       <c r="J249" s="20"/>
     </row>
-    <row r="250" spans="2:10">
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B250" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F250" s="18">
         <v>36341</v>
@@ -6585,18 +6585,18 @@
       <c r="I250" s="19"/>
       <c r="J250" s="20"/>
     </row>
-    <row r="251" spans="2:10">
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B251" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F251" s="18">
         <v>36341</v>
@@ -6608,18 +6608,18 @@
       <c r="I251" s="19"/>
       <c r="J251" s="20"/>
     </row>
-    <row r="252" spans="2:10">
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B252" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F252" s="18">
         <v>36341</v>
@@ -6631,18 +6631,18 @@
       <c r="I252" s="19"/>
       <c r="J252" s="20"/>
     </row>
-    <row r="253" spans="2:10">
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B253" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F253" s="18">
         <v>36341</v>
@@ -6654,18 +6654,18 @@
       <c r="I253" s="19"/>
       <c r="J253" s="20"/>
     </row>
-    <row r="254" spans="2:10">
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B254" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F254" s="18">
         <v>36341</v>
@@ -6677,21 +6677,21 @@
       <c r="I254" s="19"/>
       <c r="J254" s="20"/>
     </row>
-    <row r="255" spans="2:10">
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B255" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F255" s="18">
-        <v>36341</v>
+        <v>8480</v>
       </c>
       <c r="G255" s="18">
         <v>908526</v>
@@ -6700,21 +6700,21 @@
       <c r="I255" s="19"/>
       <c r="J255" s="20"/>
     </row>
-    <row r="256" spans="2:10">
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B256" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F256" s="18">
-        <v>36341</v>
+        <v>18170</v>
       </c>
       <c r="G256" s="18">
         <v>908526</v>
@@ -6723,21 +6723,21 @@
       <c r="I256" s="19"/>
       <c r="J256" s="20"/>
     </row>
-    <row r="257" spans="2:10">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B257" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F257" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G257" s="18">
         <v>908526</v>
@@ -6746,18 +6746,18 @@
       <c r="I257" s="19"/>
       <c r="J257" s="20"/>
     </row>
-    <row r="258" spans="2:10">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B258" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F258" s="18">
         <v>36341</v>
@@ -6769,18 +6769,18 @@
       <c r="I258" s="19"/>
       <c r="J258" s="20"/>
     </row>
-    <row r="259" spans="2:10">
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B259" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F259" s="18">
         <v>36341</v>
@@ -6792,18 +6792,18 @@
       <c r="I259" s="19"/>
       <c r="J259" s="20"/>
     </row>
-    <row r="260" spans="2:10">
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B260" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F260" s="18">
         <v>36341</v>
@@ -6815,18 +6815,18 @@
       <c r="I260" s="19"/>
       <c r="J260" s="20"/>
     </row>
-    <row r="261" spans="2:10">
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B261" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F261" s="18">
         <v>36341</v>
@@ -6838,18 +6838,18 @@
       <c r="I261" s="19"/>
       <c r="J261" s="20"/>
     </row>
-    <row r="262" spans="2:10">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B262" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F262" s="18">
         <v>36341</v>
@@ -6861,18 +6861,18 @@
       <c r="I262" s="19"/>
       <c r="J262" s="20"/>
     </row>
-    <row r="263" spans="2:10">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B263" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F263" s="18">
         <v>36341</v>
@@ -6884,18 +6884,18 @@
       <c r="I263" s="19"/>
       <c r="J263" s="20"/>
     </row>
-    <row r="264" spans="2:10">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B264" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F264" s="18">
         <v>36341</v>
@@ -6907,18 +6907,18 @@
       <c r="I264" s="19"/>
       <c r="J264" s="20"/>
     </row>
-    <row r="265" spans="2:10">
+    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B265" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F265" s="18">
         <v>36341</v>
@@ -6930,18 +6930,18 @@
       <c r="I265" s="19"/>
       <c r="J265" s="20"/>
     </row>
-    <row r="266" spans="2:10">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B266" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F266" s="18">
         <v>36341</v>
@@ -6953,18 +6953,18 @@
       <c r="I266" s="19"/>
       <c r="J266" s="20"/>
     </row>
-    <row r="267" spans="2:10">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B267" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F267" s="18">
         <v>36341</v>
@@ -6976,18 +6976,18 @@
       <c r="I267" s="19"/>
       <c r="J267" s="20"/>
     </row>
-    <row r="268" spans="2:10">
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B268" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F268" s="18">
         <v>36341</v>
@@ -6999,18 +6999,18 @@
       <c r="I268" s="19"/>
       <c r="J268" s="20"/>
     </row>
-    <row r="269" spans="2:10">
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B269" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F269" s="18">
         <v>36341</v>
@@ -7022,18 +7022,18 @@
       <c r="I269" s="19"/>
       <c r="J269" s="20"/>
     </row>
-    <row r="270" spans="2:10">
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B270" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F270" s="18">
         <v>36341</v>
@@ -7045,18 +7045,18 @@
       <c r="I270" s="19"/>
       <c r="J270" s="20"/>
     </row>
-    <row r="271" spans="2:10">
+    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B271" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D271" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E271" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D271" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E271" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F271" s="18">
         <v>36341</v>
@@ -7068,18 +7068,18 @@
       <c r="I271" s="19"/>
       <c r="J271" s="20"/>
     </row>
-    <row r="272" spans="2:10">
+    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B272" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F272" s="18">
         <v>36341</v>
@@ -7091,18 +7091,18 @@
       <c r="I272" s="19"/>
       <c r="J272" s="20"/>
     </row>
-    <row r="273" spans="2:10">
+    <row r="273" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B273" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F273" s="18">
         <v>36341</v>
@@ -7114,18 +7114,18 @@
       <c r="I273" s="19"/>
       <c r="J273" s="20"/>
     </row>
-    <row r="274" spans="2:10">
+    <row r="274" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B274" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E274" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D274" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E274" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F274" s="18">
         <v>36341</v>
@@ -7137,18 +7137,18 @@
       <c r="I274" s="19"/>
       <c r="J274" s="20"/>
     </row>
-    <row r="275" spans="2:10">
+    <row r="275" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B275" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F275" s="18">
         <v>36341</v>
@@ -7160,18 +7160,18 @@
       <c r="I275" s="19"/>
       <c r="J275" s="20"/>
     </row>
-    <row r="276" spans="2:10">
+    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B276" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F276" s="18">
         <v>36341</v>
@@ -7183,18 +7183,18 @@
       <c r="I276" s="19"/>
       <c r="J276" s="20"/>
     </row>
-    <row r="277" spans="2:10">
+    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B277" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F277" s="18">
         <v>36341</v>
@@ -7206,18 +7206,18 @@
       <c r="I277" s="19"/>
       <c r="J277" s="20"/>
     </row>
-    <row r="278" spans="2:10">
+    <row r="278" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B278" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F278" s="18">
         <v>36341</v>
@@ -7229,18 +7229,18 @@
       <c r="I278" s="19"/>
       <c r="J278" s="20"/>
     </row>
-    <row r="279" spans="2:10">
+    <row r="279" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B279" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F279" s="18">
         <v>36341</v>
@@ -7252,18 +7252,18 @@
       <c r="I279" s="19"/>
       <c r="J279" s="20"/>
     </row>
-    <row r="280" spans="2:10">
+    <row r="280" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B280" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F280" s="18">
         <v>36341</v>
@@ -7275,18 +7275,18 @@
       <c r="I280" s="19"/>
       <c r="J280" s="20"/>
     </row>
-    <row r="281" spans="2:10">
+    <row r="281" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B281" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F281" s="18">
         <v>36341</v>
@@ -7298,18 +7298,18 @@
       <c r="I281" s="19"/>
       <c r="J281" s="20"/>
     </row>
-    <row r="282" spans="2:10">
+    <row r="282" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B282" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F282" s="18">
         <v>36341</v>
@@ -7321,18 +7321,18 @@
       <c r="I282" s="19"/>
       <c r="J282" s="20"/>
     </row>
-    <row r="283" spans="2:10">
+    <row r="283" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B283" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F283" s="18">
         <v>36341</v>
@@ -7344,21 +7344,21 @@
       <c r="I283" s="19"/>
       <c r="J283" s="20"/>
     </row>
-    <row r="284" spans="2:10">
+    <row r="284" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B284" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F284" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G284" s="18">
         <v>908526</v>
@@ -7367,21 +7367,21 @@
       <c r="I284" s="19"/>
       <c r="J284" s="20"/>
     </row>
-    <row r="285" spans="2:10">
+    <row r="285" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B285" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F285" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G285" s="18">
         <v>908526</v>
@@ -7390,21 +7390,21 @@
       <c r="I285" s="19"/>
       <c r="J285" s="20"/>
     </row>
-    <row r="286" spans="2:10">
+    <row r="286" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B286" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F286" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G286" s="18">
         <v>908526</v>
@@ -7413,21 +7413,21 @@
       <c r="I286" s="19"/>
       <c r="J286" s="20"/>
     </row>
-    <row r="287" spans="2:10">
+    <row r="287" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B287" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D287" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E287" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E287" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F287" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G287" s="18">
         <v>908526</v>
@@ -7436,21 +7436,21 @@
       <c r="I287" s="19"/>
       <c r="J287" s="20"/>
     </row>
-    <row r="288" spans="2:10">
+    <row r="288" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B288" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F288" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G288" s="18">
         <v>908526</v>
@@ -7459,21 +7459,21 @@
       <c r="I288" s="19"/>
       <c r="J288" s="20"/>
     </row>
-    <row r="289" spans="2:10">
+    <row r="289" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B289" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F289" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G289" s="18">
         <v>908526</v>
@@ -7482,21 +7482,21 @@
       <c r="I289" s="19"/>
       <c r="J289" s="20"/>
     </row>
-    <row r="290" spans="2:10">
+    <row r="290" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B290" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E290" s="22" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F290" s="24">
-        <v>27861</v>
+        <v>8480</v>
       </c>
       <c r="G290" s="24">
         <v>908526</v>
@@ -7505,7 +7505,7 @@
       <c r="I290" s="25"/>
       <c r="J290" s="26"/>
     </row>
-    <row r="295" spans="2:10">
+    <row r="295" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B295" s="32" t="s">
         <v>81</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="2:10">
+    <row r="296" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B296" s="32" t="s">
         <v>80</v>
       </c>

--- a/Data/EC/NIT-9010085797.xlsx
+++ b/Data/EC/NIT-9010085797.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8027554C-09DD-4C28-8D05-DAA1BD0C7F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E92516-7C03-443A-A367-237011FF10FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D37FC29E-3E1A-489B-A234-AC4193BCC5F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5C5CF213-5350-4593-B42A-60E7CB3B9DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,193 +65,193 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047379762</t>
+  </si>
+  <si>
+    <t>EDWARD LUNA GUARDO</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>20292782</t>
+  </si>
+  <si>
+    <t>1047473695</t>
+  </si>
+  <si>
+    <t>RAFAEL ANDRES MANRIQUE MERCADO</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>1128059077</t>
   </si>
   <si>
     <t>FERNEIS ENRIQUE VERGARA TAMARA</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1047398887</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES NORIEGA PEÑA</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>1143370668</t>
+  </si>
+  <si>
+    <t>ISRAEL BLANCO CARDENAS</t>
+  </si>
+  <si>
+    <t>1002247347</t>
+  </si>
+  <si>
+    <t>YULIAN FLOREZ GIRADO</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>1192746940</t>
+  </si>
+  <si>
+    <t>LUIS JOSE RAMOS CARMONA</t>
+  </si>
+  <si>
+    <t>1137219480</t>
+  </si>
+  <si>
+    <t>YOVANIS ALEXANDER AHUMEDO JULIO</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1143147260</t>
+  </si>
+  <si>
+    <t>MARCOS ANTONIO PARRA TOVAR</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>8981557</t>
+  </si>
+  <si>
+    <t>OSWALDO ENRIQUE PUERTA HURTADO</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
     <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>8981557</t>
-  </si>
-  <si>
-    <t>OSWALDO ENRIQUE PUERTA HURTADO</t>
-  </si>
-  <si>
-    <t>1047473695</t>
-  </si>
-  <si>
-    <t>RAFAEL ANDRES MANRIQUE MERCADO</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1192746940</t>
-  </si>
-  <si>
-    <t>LUIS JOSE RAMOS CARMONA</t>
-  </si>
-  <si>
-    <t>1047398887</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES NORIEGA PEÑA</t>
-  </si>
-  <si>
-    <t>1047379762</t>
-  </si>
-  <si>
-    <t>EDWARD LUNA GUARDO</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1143147260</t>
-  </si>
-  <si>
-    <t>MARCOS ANTONIO PARRA TOVAR</t>
-  </si>
-  <si>
-    <t>1137219480</t>
-  </si>
-  <si>
-    <t>YOVANIS ALEXANDER AHUMEDO JULIO</t>
-  </si>
-  <si>
-    <t>1143370668</t>
-  </si>
-  <si>
-    <t>ISRAEL BLANCO CARDENAS</t>
-  </si>
-  <si>
-    <t>20292782</t>
-  </si>
-  <si>
-    <t>1002247347</t>
-  </si>
-  <si>
-    <t>YULIAN FLOREZ GIRADO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -295,7 +295,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,7 +350,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -363,9 +365,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -565,23 +565,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,10 +609,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F360969E-B294-0F08-6138-3348C5A03FDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D66553E-64BD-F1BF-DBA1-877BAE798A3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,28 +1016,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8957484E-7F09-487A-B5AD-823B80E36591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAD6EF-4F3D-422E-94D4-96CA4AE168EE}">
   <dimension ref="B2:J296"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1050,7 +1050,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1061,7 +1061,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1072,7 +1072,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1083,8 +1083,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>73</v>
       </c>
@@ -1099,8 +1099,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1115,8 +1115,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
@@ -1131,8 +1131,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>75</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27861</v>
+        <v>18170</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1203,21 +1203,21 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>18170</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1226,18 +1226,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1249,7 +1249,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1272,18 +1272,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1295,7 +1295,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1318,21 +1318,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G22" s="18">
         <v>908526</v>
@@ -1341,18 +1341,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1364,21 +1364,21 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G24" s="18">
         <v>908526</v>
@@ -1387,7 +1387,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1410,18 +1410,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1433,15 +1433,15 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>22</v>
@@ -1456,7 +1456,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1479,21 +1479,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>8480</v>
       </c>
       <c r="G29" s="18">
         <v>908526</v>
@@ -1502,21 +1502,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>8480</v>
       </c>
       <c r="G30" s="18">
         <v>908526</v>
@@ -1525,18 +1525,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1548,15 +1548,15 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>27</v>
@@ -1571,21 +1571,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>21804</v>
       </c>
       <c r="G33" s="18">
         <v>908526</v>
@@ -1594,7 +1594,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1617,18 +1617,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1640,18 +1640,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1663,15 +1663,15 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
@@ -1686,18 +1686,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1709,18 +1709,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
@@ -1732,7 +1732,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1755,18 +1755,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
@@ -1778,18 +1778,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
@@ -1801,18 +1801,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
         <v>36341</v>
@@ -1824,18 +1824,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1847,7 +1847,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
@@ -1870,18 +1870,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F46" s="18">
         <v>36341</v>
@@ -1893,18 +1893,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1916,18 +1916,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1939,18 +1939,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1962,18 +1962,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1985,18 +1985,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -2008,7 +2008,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -2031,18 +2031,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -2054,21 +2054,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F54" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G54" s="18">
         <v>908526</v>
@@ -2077,21 +2077,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F55" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G55" s="18">
         <v>908526</v>
@@ -2100,18 +2100,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2123,18 +2123,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2146,18 +2146,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2169,18 +2169,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2192,18 +2192,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2215,18 +2215,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2238,18 +2238,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2261,18 +2261,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2284,18 +2284,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2307,18 +2307,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2330,18 +2330,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2353,18 +2353,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2376,18 +2376,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2399,18 +2399,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2422,18 +2422,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F70" s="18">
         <v>36341</v>
@@ -2445,18 +2445,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2468,18 +2468,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F72" s="18">
         <v>36341</v>
@@ -2491,18 +2491,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F73" s="18">
         <v>36341</v>
@@ -2514,18 +2514,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F74" s="18">
         <v>36341</v>
@@ -2537,18 +2537,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>36341</v>
@@ -2560,18 +2560,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F76" s="18">
         <v>36341</v>
@@ -2583,18 +2583,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F77" s="18">
         <v>36341</v>
@@ -2606,18 +2606,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F78" s="18">
         <v>36341</v>
@@ -2629,18 +2629,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F79" s="18">
         <v>36341</v>
@@ -2652,18 +2652,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F80" s="18">
         <v>36341</v>
@@ -2675,18 +2675,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F81" s="18">
         <v>36341</v>
@@ -2698,18 +2698,18 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F82" s="18">
         <v>36341</v>
@@ -2721,18 +2721,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F83" s="18">
         <v>36341</v>
@@ -2744,18 +2744,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F84" s="18">
         <v>36341</v>
@@ -2767,18 +2767,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F85" s="18">
         <v>36341</v>
@@ -2790,21 +2790,21 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F86" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G86" s="18">
         <v>908526</v>
@@ -2813,18 +2813,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F87" s="18">
         <v>36341</v>
@@ -2836,18 +2836,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F88" s="18">
         <v>36341</v>
@@ -2859,18 +2859,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F89" s="18">
         <v>36341</v>
@@ -2882,18 +2882,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F90" s="18">
         <v>36341</v>
@@ -2905,18 +2905,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F91" s="18">
         <v>36341</v>
@@ -2928,18 +2928,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F92" s="18">
         <v>36341</v>
@@ -2951,18 +2951,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
         <v>36341</v>
@@ -2974,18 +2974,18 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F94" s="18">
         <v>36341</v>
@@ -2997,18 +2997,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F95" s="18">
         <v>36341</v>
@@ -3020,18 +3020,18 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F96" s="18">
         <v>36341</v>
@@ -3043,18 +3043,18 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F97" s="18">
         <v>36341</v>
@@ -3066,18 +3066,18 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F98" s="18">
         <v>36341</v>
@@ -3089,18 +3089,18 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F99" s="18">
         <v>36341</v>
@@ -3112,18 +3112,18 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F100" s="18">
         <v>36341</v>
@@ -3135,18 +3135,18 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F101" s="18">
         <v>36341</v>
@@ -3158,18 +3158,18 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F102" s="18">
         <v>36341</v>
@@ -3181,18 +3181,18 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
         <v>36341</v>
@@ -3204,18 +3204,18 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
         <v>36341</v>
@@ -3227,18 +3227,18 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F105" s="18">
         <v>36341</v>
@@ -3250,18 +3250,18 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
         <v>36341</v>
@@ -3273,18 +3273,18 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
         <v>36341</v>
@@ -3296,18 +3296,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F108" s="18">
         <v>36341</v>
@@ -3319,18 +3319,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F109" s="18">
         <v>36341</v>
@@ -3342,18 +3342,18 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F110" s="18">
         <v>36341</v>
@@ -3365,18 +3365,18 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F111" s="18">
         <v>36341</v>
@@ -3388,18 +3388,18 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F112" s="18">
         <v>36341</v>
@@ -3411,18 +3411,18 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F113" s="18">
         <v>36341</v>
@@ -3434,18 +3434,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F114" s="18">
         <v>36341</v>
@@ -3457,18 +3457,18 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F115" s="18">
         <v>36341</v>
@@ -3480,18 +3480,18 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F116" s="18">
         <v>36341</v>
@@ -3503,18 +3503,18 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F117" s="18">
         <v>36341</v>
@@ -3526,21 +3526,21 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F118" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G118" s="18">
         <v>908526</v>
@@ -3549,18 +3549,18 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F119" s="18">
         <v>36341</v>
@@ -3572,18 +3572,18 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F120" s="18">
         <v>36341</v>
@@ -3595,18 +3595,18 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F121" s="18">
         <v>36341</v>
@@ -3618,15 +3618,15 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:10">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>47</v>
@@ -3641,15 +3641,15 @@
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:10">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>48</v>
@@ -3664,18 +3664,18 @@
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:10">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F124" s="18">
         <v>36341</v>
@@ -3687,18 +3687,18 @@
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:10">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F125" s="18">
         <v>36341</v>
@@ -3710,18 +3710,18 @@
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:10">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F126" s="18">
         <v>36341</v>
@@ -3733,21 +3733,21 @@
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:10">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F127" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G127" s="18">
         <v>908526</v>
@@ -3756,18 +3756,18 @@
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:10">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F128" s="18">
         <v>36341</v>
@@ -3779,18 +3779,18 @@
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:10">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F129" s="18">
         <v>36341</v>
@@ -3802,18 +3802,18 @@
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:10">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F130" s="18">
         <v>36341</v>
@@ -3825,18 +3825,18 @@
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:10">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F131" s="18">
         <v>36341</v>
@@ -3848,18 +3848,18 @@
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:10">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F132" s="18">
         <v>36341</v>
@@ -3871,18 +3871,18 @@
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:10">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F133" s="18">
         <v>36341</v>
@@ -3894,18 +3894,18 @@
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:10">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F134" s="18">
         <v>36341</v>
@@ -3917,18 +3917,18 @@
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:10">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F135" s="18">
         <v>36341</v>
@@ -3940,18 +3940,18 @@
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:10">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F136" s="18">
         <v>36341</v>
@@ -3963,18 +3963,18 @@
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:10">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F137" s="18">
         <v>36341</v>
@@ -3986,18 +3986,18 @@
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:10">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F138" s="18">
         <v>36341</v>
@@ -4009,21 +4009,21 @@
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:10">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F139" s="18">
-        <v>21804</v>
+        <v>36341</v>
       </c>
       <c r="G139" s="18">
         <v>908526</v>
@@ -4032,44 +4032,44 @@
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:10">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F140" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G140" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:10">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F141" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G141" s="18">
         <v>908526</v>
@@ -4078,18 +4078,18 @@
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:10">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F142" s="18">
         <v>36341</v>
@@ -4101,18 +4101,18 @@
       <c r="I142" s="19"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:10">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F143" s="18">
         <v>36341</v>
@@ -4124,18 +4124,18 @@
       <c r="I143" s="19"/>
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:10">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F144" s="18">
         <v>36341</v>
@@ -4147,18 +4147,18 @@
       <c r="I144" s="19"/>
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:10">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F145" s="18">
         <v>36341</v>
@@ -4170,18 +4170,18 @@
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:10">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F146" s="18">
         <v>36341</v>
@@ -4193,18 +4193,18 @@
       <c r="I146" s="19"/>
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:10">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F147" s="18">
         <v>36341</v>
@@ -4216,18 +4216,18 @@
       <c r="I147" s="19"/>
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:10">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F148" s="18">
         <v>36341</v>
@@ -4239,18 +4239,18 @@
       <c r="I148" s="19"/>
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:10">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F149" s="18">
         <v>36341</v>
@@ -4262,18 +4262,18 @@
       <c r="I149" s="19"/>
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:10">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F150" s="18">
         <v>36341</v>
@@ -4285,18 +4285,18 @@
       <c r="I150" s="19"/>
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:10">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F151" s="18">
         <v>36341</v>
@@ -4308,18 +4308,18 @@
       <c r="I151" s="19"/>
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:10">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F152" s="18">
         <v>36341</v>
@@ -4331,18 +4331,18 @@
       <c r="I152" s="19"/>
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:10">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F153" s="18">
         <v>36341</v>
@@ -4354,18 +4354,18 @@
       <c r="I153" s="19"/>
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:10">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F154" s="18">
         <v>36341</v>
@@ -4377,18 +4377,18 @@
       <c r="I154" s="19"/>
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:10">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F155" s="18">
         <v>36341</v>
@@ -4400,18 +4400,18 @@
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:10">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F156" s="18">
         <v>36341</v>
@@ -4423,18 +4423,18 @@
       <c r="I156" s="19"/>
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:10">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F157" s="18">
         <v>36341</v>
@@ -4446,18 +4446,18 @@
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:10">
       <c r="B158" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F158" s="18">
         <v>36341</v>
@@ -4469,18 +4469,18 @@
       <c r="I158" s="19"/>
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:10">
       <c r="B159" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F159" s="18">
         <v>36341</v>
@@ -4492,18 +4492,18 @@
       <c r="I159" s="19"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:10">
       <c r="B160" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F160" s="18">
         <v>36341</v>
@@ -4515,18 +4515,18 @@
       <c r="I160" s="19"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:10">
       <c r="B161" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F161" s="18">
         <v>36341</v>
@@ -4538,18 +4538,18 @@
       <c r="I161" s="19"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:10">
       <c r="B162" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F162" s="18">
         <v>36341</v>
@@ -4561,18 +4561,18 @@
       <c r="I162" s="19"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:10">
       <c r="B163" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F163" s="18">
         <v>36341</v>
@@ -4584,18 +4584,18 @@
       <c r="I163" s="19"/>
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:10">
       <c r="B164" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F164" s="18">
         <v>36341</v>
@@ -4607,18 +4607,18 @@
       <c r="I164" s="19"/>
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:10">
       <c r="B165" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F165" s="18">
         <v>36341</v>
@@ -4630,18 +4630,18 @@
       <c r="I165" s="19"/>
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:10">
       <c r="B166" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F166" s="18">
         <v>36341</v>
@@ -4653,18 +4653,18 @@
       <c r="I166" s="19"/>
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:10">
       <c r="B167" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F167" s="18">
         <v>36341</v>
@@ -4676,18 +4676,18 @@
       <c r="I167" s="19"/>
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:10">
       <c r="B168" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F168" s="18">
         <v>36341</v>
@@ -4699,18 +4699,18 @@
       <c r="I168" s="19"/>
       <c r="J168" s="20"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:10">
       <c r="B169" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F169" s="18">
         <v>36341</v>
@@ -4722,18 +4722,18 @@
       <c r="I169" s="19"/>
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:10">
       <c r="B170" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F170" s="18">
         <v>36341</v>
@@ -4745,18 +4745,18 @@
       <c r="I170" s="19"/>
       <c r="J170" s="20"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:10">
       <c r="B171" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F171" s="18">
         <v>36341</v>
@@ -4768,18 +4768,18 @@
       <c r="I171" s="19"/>
       <c r="J171" s="20"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:10">
       <c r="B172" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F172" s="18">
         <v>36341</v>
@@ -4791,18 +4791,18 @@
       <c r="I172" s="19"/>
       <c r="J172" s="20"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:10">
       <c r="B173" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F173" s="18">
         <v>36341</v>
@@ -4814,18 +4814,18 @@
       <c r="I173" s="19"/>
       <c r="J173" s="20"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:10">
       <c r="B174" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F174" s="18">
         <v>36341</v>
@@ -4837,18 +4837,18 @@
       <c r="I174" s="19"/>
       <c r="J174" s="20"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:10">
       <c r="B175" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F175" s="18">
         <v>36341</v>
@@ -4860,18 +4860,18 @@
       <c r="I175" s="19"/>
       <c r="J175" s="20"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:10">
       <c r="B176" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F176" s="18">
         <v>36341</v>
@@ -4883,18 +4883,18 @@
       <c r="I176" s="19"/>
       <c r="J176" s="20"/>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:10">
       <c r="B177" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F177" s="18">
         <v>36341</v>
@@ -4906,18 +4906,18 @@
       <c r="I177" s="19"/>
       <c r="J177" s="20"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:10">
       <c r="B178" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F178" s="18">
         <v>36341</v>
@@ -4929,18 +4929,18 @@
       <c r="I178" s="19"/>
       <c r="J178" s="20"/>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:10">
       <c r="B179" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F179" s="18">
         <v>36341</v>
@@ -4952,18 +4952,18 @@
       <c r="I179" s="19"/>
       <c r="J179" s="20"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:10">
       <c r="B180" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F180" s="18">
         <v>36341</v>
@@ -4975,18 +4975,18 @@
       <c r="I180" s="19"/>
       <c r="J180" s="20"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:10">
       <c r="B181" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181" s="18">
         <v>36341</v>
@@ -4998,21 +4998,21 @@
       <c r="I181" s="19"/>
       <c r="J181" s="20"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:10">
       <c r="B182" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F182" s="18">
-        <v>18170</v>
+        <v>36341</v>
       </c>
       <c r="G182" s="18">
         <v>908526</v>
@@ -5021,21 +5021,21 @@
       <c r="I182" s="19"/>
       <c r="J182" s="20"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:10">
       <c r="B183" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F183" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G183" s="18">
         <v>908526</v>
@@ -5044,18 +5044,18 @@
       <c r="I183" s="19"/>
       <c r="J183" s="20"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:10">
       <c r="B184" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F184" s="18">
         <v>36341</v>
@@ -5067,18 +5067,18 @@
       <c r="I184" s="19"/>
       <c r="J184" s="20"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:10">
       <c r="B185" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F185" s="18">
         <v>36341</v>
@@ -5090,18 +5090,18 @@
       <c r="I185" s="19"/>
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:10">
       <c r="B186" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F186" s="18">
         <v>36341</v>
@@ -5113,18 +5113,18 @@
       <c r="I186" s="19"/>
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:10">
       <c r="B187" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F187" s="18">
         <v>36341</v>
@@ -5136,18 +5136,18 @@
       <c r="I187" s="19"/>
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:10">
       <c r="B188" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F188" s="18">
         <v>36341</v>
@@ -5159,18 +5159,18 @@
       <c r="I188" s="19"/>
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:10">
       <c r="B189" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F189" s="18">
         <v>36341</v>
@@ -5182,18 +5182,18 @@
       <c r="I189" s="19"/>
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:10">
       <c r="B190" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F190" s="18">
         <v>36341</v>
@@ -5205,18 +5205,18 @@
       <c r="I190" s="19"/>
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:10">
       <c r="B191" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F191" s="18">
         <v>36341</v>
@@ -5228,18 +5228,18 @@
       <c r="I191" s="19"/>
       <c r="J191" s="20"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:10">
       <c r="B192" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F192" s="18">
         <v>36341</v>
@@ -5251,18 +5251,18 @@
       <c r="I192" s="19"/>
       <c r="J192" s="20"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:10">
       <c r="B193" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F193" s="18">
         <v>36341</v>
@@ -5274,18 +5274,18 @@
       <c r="I193" s="19"/>
       <c r="J193" s="20"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:10">
       <c r="B194" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F194" s="18">
         <v>36341</v>
@@ -5297,18 +5297,18 @@
       <c r="I194" s="19"/>
       <c r="J194" s="20"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:10">
       <c r="B195" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F195" s="18">
         <v>36341</v>
@@ -5320,18 +5320,18 @@
       <c r="I195" s="19"/>
       <c r="J195" s="20"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:10">
       <c r="B196" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F196" s="18">
         <v>36341</v>
@@ -5343,18 +5343,18 @@
       <c r="I196" s="19"/>
       <c r="J196" s="20"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:10">
       <c r="B197" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F197" s="18">
         <v>36341</v>
@@ -5366,18 +5366,18 @@
       <c r="I197" s="19"/>
       <c r="J197" s="20"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:10">
       <c r="B198" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F198" s="18">
         <v>36341</v>
@@ -5389,18 +5389,18 @@
       <c r="I198" s="19"/>
       <c r="J198" s="20"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:10">
       <c r="B199" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F199" s="18">
         <v>36341</v>
@@ -5412,18 +5412,18 @@
       <c r="I199" s="19"/>
       <c r="J199" s="20"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:10">
       <c r="B200" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F200" s="18">
         <v>36341</v>
@@ -5435,18 +5435,18 @@
       <c r="I200" s="19"/>
       <c r="J200" s="20"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:10">
       <c r="B201" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F201" s="18">
         <v>36341</v>
@@ -5458,18 +5458,18 @@
       <c r="I201" s="19"/>
       <c r="J201" s="20"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:10">
       <c r="B202" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F202" s="18">
         <v>36341</v>
@@ -5481,18 +5481,18 @@
       <c r="I202" s="19"/>
       <c r="J202" s="20"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:10">
       <c r="B203" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F203" s="18">
         <v>36341</v>
@@ -5504,18 +5504,18 @@
       <c r="I203" s="19"/>
       <c r="J203" s="20"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:10">
       <c r="B204" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F204" s="18">
         <v>36341</v>
@@ -5527,18 +5527,18 @@
       <c r="I204" s="19"/>
       <c r="J204" s="20"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:10">
       <c r="B205" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F205" s="18">
         <v>36341</v>
@@ -5550,18 +5550,18 @@
       <c r="I205" s="19"/>
       <c r="J205" s="20"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:10">
       <c r="B206" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F206" s="18">
         <v>36341</v>
@@ -5573,18 +5573,18 @@
       <c r="I206" s="19"/>
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:10">
       <c r="B207" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F207" s="18">
         <v>36341</v>
@@ -5596,18 +5596,18 @@
       <c r="I207" s="19"/>
       <c r="J207" s="20"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:10">
       <c r="B208" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F208" s="18">
         <v>36341</v>
@@ -5619,18 +5619,18 @@
       <c r="I208" s="19"/>
       <c r="J208" s="20"/>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:10">
       <c r="B209" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F209" s="18">
         <v>36341</v>
@@ -5642,18 +5642,18 @@
       <c r="I209" s="19"/>
       <c r="J209" s="20"/>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:10">
       <c r="B210" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F210" s="18">
         <v>36341</v>
@@ -5665,18 +5665,18 @@
       <c r="I210" s="19"/>
       <c r="J210" s="20"/>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:10">
       <c r="B211" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F211" s="18">
         <v>36341</v>
@@ -5688,18 +5688,18 @@
       <c r="I211" s="19"/>
       <c r="J211" s="20"/>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:10">
       <c r="B212" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F212" s="18">
         <v>36341</v>
@@ -5711,18 +5711,18 @@
       <c r="I212" s="19"/>
       <c r="J212" s="20"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:10">
       <c r="B213" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F213" s="18">
         <v>36341</v>
@@ -5734,18 +5734,18 @@
       <c r="I213" s="19"/>
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:10">
       <c r="B214" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F214" s="18">
         <v>36341</v>
@@ -5757,18 +5757,18 @@
       <c r="I214" s="19"/>
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:10">
       <c r="B215" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F215" s="18">
         <v>36341</v>
@@ -5780,18 +5780,18 @@
       <c r="I215" s="19"/>
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:10">
       <c r="B216" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F216" s="18">
         <v>36341</v>
@@ -5803,18 +5803,18 @@
       <c r="I216" s="19"/>
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:10">
       <c r="B217" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F217" s="18">
         <v>36341</v>
@@ -5826,21 +5826,21 @@
       <c r="I217" s="19"/>
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:10">
       <c r="B218" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F218" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G218" s="18">
         <v>908526</v>
@@ -5849,18 +5849,18 @@
       <c r="I218" s="19"/>
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:10">
       <c r="B219" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F219" s="18">
         <v>36341</v>
@@ -5872,18 +5872,18 @@
       <c r="I219" s="19"/>
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:10">
       <c r="B220" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F220" s="18">
         <v>36341</v>
@@ -5895,18 +5895,18 @@
       <c r="I220" s="19"/>
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:10">
       <c r="B221" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F221" s="18">
         <v>36341</v>
@@ -5918,18 +5918,18 @@
       <c r="I221" s="19"/>
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:10">
       <c r="B222" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F222" s="18">
         <v>36341</v>
@@ -5941,18 +5941,18 @@
       <c r="I222" s="19"/>
       <c r="J222" s="20"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:10">
       <c r="B223" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F223" s="18">
         <v>36341</v>
@@ -5964,18 +5964,18 @@
       <c r="I223" s="19"/>
       <c r="J223" s="20"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:10">
       <c r="B224" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F224" s="18">
         <v>36341</v>
@@ -5987,18 +5987,18 @@
       <c r="I224" s="19"/>
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:10">
       <c r="B225" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F225" s="18">
         <v>36341</v>
@@ -6010,18 +6010,18 @@
       <c r="I225" s="19"/>
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:10">
       <c r="B226" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F226" s="18">
         <v>36341</v>
@@ -6033,18 +6033,18 @@
       <c r="I226" s="19"/>
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:10">
       <c r="B227" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F227" s="18">
         <v>36341</v>
@@ -6056,18 +6056,18 @@
       <c r="I227" s="19"/>
       <c r="J227" s="20"/>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:10">
       <c r="B228" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F228" s="18">
         <v>36341</v>
@@ -6079,18 +6079,18 @@
       <c r="I228" s="19"/>
       <c r="J228" s="20"/>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:10">
       <c r="B229" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F229" s="18">
         <v>36341</v>
@@ -6102,18 +6102,18 @@
       <c r="I229" s="19"/>
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:10">
       <c r="B230" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F230" s="18">
         <v>36341</v>
@@ -6125,18 +6125,18 @@
       <c r="I230" s="19"/>
       <c r="J230" s="20"/>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:10">
       <c r="B231" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F231" s="18">
         <v>36341</v>
@@ -6148,18 +6148,18 @@
       <c r="I231" s="19"/>
       <c r="J231" s="20"/>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:10">
       <c r="B232" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F232" s="18">
         <v>36341</v>
@@ -6171,18 +6171,18 @@
       <c r="I232" s="19"/>
       <c r="J232" s="20"/>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:10">
       <c r="B233" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F233" s="18">
         <v>36341</v>
@@ -6194,18 +6194,18 @@
       <c r="I233" s="19"/>
       <c r="J233" s="20"/>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:10">
       <c r="B234" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F234" s="18">
         <v>36341</v>
@@ -6217,18 +6217,18 @@
       <c r="I234" s="19"/>
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:10">
       <c r="B235" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F235" s="18">
         <v>36341</v>
@@ -6240,18 +6240,18 @@
       <c r="I235" s="19"/>
       <c r="J235" s="20"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:10">
       <c r="B236" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F236" s="18">
         <v>36341</v>
@@ -6263,18 +6263,18 @@
       <c r="I236" s="19"/>
       <c r="J236" s="20"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:10">
       <c r="B237" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F237" s="18">
         <v>36341</v>
@@ -6286,18 +6286,18 @@
       <c r="I237" s="19"/>
       <c r="J237" s="20"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:10">
       <c r="B238" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F238" s="18">
         <v>36341</v>
@@ -6309,18 +6309,18 @@
       <c r="I238" s="19"/>
       <c r="J238" s="20"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:10">
       <c r="B239" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F239" s="18">
         <v>36341</v>
@@ -6332,18 +6332,18 @@
       <c r="I239" s="19"/>
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:10">
       <c r="B240" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F240" s="18">
         <v>36341</v>
@@ -6355,18 +6355,18 @@
       <c r="I240" s="19"/>
       <c r="J240" s="20"/>
     </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:10">
       <c r="B241" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F241" s="18">
         <v>36341</v>
@@ -6378,18 +6378,18 @@
       <c r="I241" s="19"/>
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:10">
       <c r="B242" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E242" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F242" s="18">
         <v>36341</v>
@@ -6401,18 +6401,18 @@
       <c r="I242" s="19"/>
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:10">
       <c r="B243" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E243" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F243" s="18">
         <v>36341</v>
@@ -6424,18 +6424,18 @@
       <c r="I243" s="19"/>
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:10">
       <c r="B244" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F244" s="18">
         <v>36341</v>
@@ -6447,18 +6447,18 @@
       <c r="I244" s="19"/>
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:10">
       <c r="B245" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F245" s="18">
         <v>36341</v>
@@ -6470,18 +6470,18 @@
       <c r="I245" s="19"/>
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:10">
       <c r="B246" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E246" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F246" s="18">
         <v>36341</v>
@@ -6493,18 +6493,18 @@
       <c r="I246" s="19"/>
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:10">
       <c r="B247" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E247" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F247" s="18">
         <v>36341</v>
@@ -6516,18 +6516,18 @@
       <c r="I247" s="19"/>
       <c r="J247" s="20"/>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:10">
       <c r="B248" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E248" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F248" s="18">
         <v>36341</v>
@@ -6539,18 +6539,18 @@
       <c r="I248" s="19"/>
       <c r="J248" s="20"/>
     </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:10">
       <c r="B249" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D249" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F249" s="18">
         <v>36341</v>
@@ -6562,18 +6562,18 @@
       <c r="I249" s="19"/>
       <c r="J249" s="20"/>
     </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:10">
       <c r="B250" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D250" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E250" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E250" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F250" s="18">
         <v>36341</v>
@@ -6585,18 +6585,18 @@
       <c r="I250" s="19"/>
       <c r="J250" s="20"/>
     </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:10">
       <c r="B251" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D251" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F251" s="18">
         <v>36341</v>
@@ -6608,18 +6608,18 @@
       <c r="I251" s="19"/>
       <c r="J251" s="20"/>
     </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:10">
       <c r="B252" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D252" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F252" s="18">
         <v>36341</v>
@@ -6631,18 +6631,18 @@
       <c r="I252" s="19"/>
       <c r="J252" s="20"/>
     </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:10">
       <c r="B253" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D253" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E253" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="F253" s="18">
         <v>36341</v>
@@ -6654,18 +6654,18 @@
       <c r="I253" s="19"/>
       <c r="J253" s="20"/>
     </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:10">
       <c r="B254" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D254" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E254" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="F254" s="18">
         <v>36341</v>
@@ -6677,21 +6677,21 @@
       <c r="I254" s="19"/>
       <c r="J254" s="20"/>
     </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:10">
       <c r="B255" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F255" s="18">
-        <v>8480</v>
+        <v>36341</v>
       </c>
       <c r="G255" s="18">
         <v>908526</v>
@@ -6700,21 +6700,21 @@
       <c r="I255" s="19"/>
       <c r="J255" s="20"/>
     </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:10">
       <c r="B256" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F256" s="18">
-        <v>18170</v>
+        <v>36341</v>
       </c>
       <c r="G256" s="18">
         <v>908526</v>
@@ -6723,21 +6723,21 @@
       <c r="I256" s="19"/>
       <c r="J256" s="20"/>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:10">
       <c r="B257" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F257" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G257" s="18">
         <v>908526</v>
@@ -6746,18 +6746,18 @@
       <c r="I257" s="19"/>
       <c r="J257" s="20"/>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:10">
       <c r="B258" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F258" s="18">
         <v>36341</v>
@@ -6769,18 +6769,18 @@
       <c r="I258" s="19"/>
       <c r="J258" s="20"/>
     </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:10">
       <c r="B259" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F259" s="18">
         <v>36341</v>
@@ -6792,18 +6792,18 @@
       <c r="I259" s="19"/>
       <c r="J259" s="20"/>
     </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:10">
       <c r="B260" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F260" s="18">
         <v>36341</v>
@@ -6815,18 +6815,18 @@
       <c r="I260" s="19"/>
       <c r="J260" s="20"/>
     </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:10">
       <c r="B261" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F261" s="18">
         <v>36341</v>
@@ -6838,18 +6838,18 @@
       <c r="I261" s="19"/>
       <c r="J261" s="20"/>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:10">
       <c r="B262" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F262" s="18">
         <v>36341</v>
@@ -6861,18 +6861,18 @@
       <c r="I262" s="19"/>
       <c r="J262" s="20"/>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:10">
       <c r="B263" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F263" s="18">
         <v>36341</v>
@@ -6884,18 +6884,18 @@
       <c r="I263" s="19"/>
       <c r="J263" s="20"/>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:10">
       <c r="B264" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F264" s="18">
         <v>36341</v>
@@ -6907,18 +6907,18 @@
       <c r="I264" s="19"/>
       <c r="J264" s="20"/>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:10">
       <c r="B265" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F265" s="18">
         <v>36341</v>
@@ -6930,18 +6930,18 @@
       <c r="I265" s="19"/>
       <c r="J265" s="20"/>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:10">
       <c r="B266" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F266" s="18">
         <v>36341</v>
@@ -6953,18 +6953,18 @@
       <c r="I266" s="19"/>
       <c r="J266" s="20"/>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:10">
       <c r="B267" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F267" s="18">
         <v>36341</v>
@@ -6976,18 +6976,18 @@
       <c r="I267" s="19"/>
       <c r="J267" s="20"/>
     </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:10">
       <c r="B268" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F268" s="18">
         <v>36341</v>
@@ -6999,18 +6999,18 @@
       <c r="I268" s="19"/>
       <c r="J268" s="20"/>
     </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:10">
       <c r="B269" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F269" s="18">
         <v>36341</v>
@@ -7022,18 +7022,18 @@
       <c r="I269" s="19"/>
       <c r="J269" s="20"/>
     </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:10">
       <c r="B270" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F270" s="18">
         <v>36341</v>
@@ -7045,18 +7045,18 @@
       <c r="I270" s="19"/>
       <c r="J270" s="20"/>
     </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:10">
       <c r="B271" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F271" s="18">
         <v>36341</v>
@@ -7068,18 +7068,18 @@
       <c r="I271" s="19"/>
       <c r="J271" s="20"/>
     </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:10">
       <c r="B272" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F272" s="18">
         <v>36341</v>
@@ -7091,18 +7091,18 @@
       <c r="I272" s="19"/>
       <c r="J272" s="20"/>
     </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:10">
       <c r="B273" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F273" s="18">
         <v>36341</v>
@@ -7114,18 +7114,18 @@
       <c r="I273" s="19"/>
       <c r="J273" s="20"/>
     </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:10">
       <c r="B274" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F274" s="18">
         <v>36341</v>
@@ -7137,18 +7137,18 @@
       <c r="I274" s="19"/>
       <c r="J274" s="20"/>
     </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:10">
       <c r="B275" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F275" s="18">
         <v>36341</v>
@@ -7160,18 +7160,18 @@
       <c r="I275" s="19"/>
       <c r="J275" s="20"/>
     </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:10">
       <c r="B276" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F276" s="18">
         <v>36341</v>
@@ -7183,18 +7183,18 @@
       <c r="I276" s="19"/>
       <c r="J276" s="20"/>
     </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:10">
       <c r="B277" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E277" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D277" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E277" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F277" s="18">
         <v>36341</v>
@@ -7206,18 +7206,18 @@
       <c r="I277" s="19"/>
       <c r="J277" s="20"/>
     </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:10">
       <c r="B278" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E278" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D278" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E278" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F278" s="18">
         <v>36341</v>
@@ -7229,18 +7229,18 @@
       <c r="I278" s="19"/>
       <c r="J278" s="20"/>
     </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:10">
       <c r="B279" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D279" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E279" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F279" s="18">
         <v>36341</v>
@@ -7252,18 +7252,18 @@
       <c r="I279" s="19"/>
       <c r="J279" s="20"/>
     </row>
-    <row r="280" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:10">
       <c r="B280" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D280" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E280" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F280" s="18">
         <v>36341</v>
@@ -7275,18 +7275,18 @@
       <c r="I280" s="19"/>
       <c r="J280" s="20"/>
     </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:10">
       <c r="B281" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E281" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D281" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E281" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F281" s="18">
         <v>36341</v>
@@ -7298,18 +7298,18 @@
       <c r="I281" s="19"/>
       <c r="J281" s="20"/>
     </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:10">
       <c r="B282" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E282" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D282" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E282" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F282" s="18">
         <v>36341</v>
@@ -7321,18 +7321,18 @@
       <c r="I282" s="19"/>
       <c r="J282" s="20"/>
     </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:10">
       <c r="B283" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E283" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D283" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E283" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F283" s="18">
         <v>36341</v>
@@ -7344,21 +7344,21 @@
       <c r="I283" s="19"/>
       <c r="J283" s="20"/>
     </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:10">
       <c r="B284" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D284" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E284" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F284" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G284" s="18">
         <v>908526</v>
@@ -7367,21 +7367,21 @@
       <c r="I284" s="19"/>
       <c r="J284" s="20"/>
     </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:10">
       <c r="B285" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D285" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E285" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E285" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F285" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G285" s="18">
         <v>908526</v>
@@ -7390,21 +7390,21 @@
       <c r="I285" s="19"/>
       <c r="J285" s="20"/>
     </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:10">
       <c r="B286" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D286" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E286" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F286" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G286" s="18">
         <v>908526</v>
@@ -7413,21 +7413,21 @@
       <c r="I286" s="19"/>
       <c r="J286" s="20"/>
     </row>
-    <row r="287" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:10">
       <c r="B287" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D287" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E287" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F287" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G287" s="18">
         <v>908526</v>
@@ -7436,21 +7436,21 @@
       <c r="I287" s="19"/>
       <c r="J287" s="20"/>
     </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:10">
       <c r="B288" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D288" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E288" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E288" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F288" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G288" s="18">
         <v>908526</v>
@@ -7459,21 +7459,21 @@
       <c r="I288" s="19"/>
       <c r="J288" s="20"/>
     </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:10">
       <c r="B289" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D289" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E289" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E289" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F289" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G289" s="18">
         <v>908526</v>
@@ -7482,21 +7482,21 @@
       <c r="I289" s="19"/>
       <c r="J289" s="20"/>
     </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:10">
       <c r="B290" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D290" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E290" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E290" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="F290" s="24">
-        <v>8480</v>
+        <v>27861</v>
       </c>
       <c r="G290" s="24">
         <v>908526</v>
@@ -7505,7 +7505,7 @@
       <c r="I290" s="25"/>
       <c r="J290" s="26"/>
     </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:10">
       <c r="B295" s="32" t="s">
         <v>81</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:10">
       <c r="B296" s="32" t="s">
         <v>80</v>
       </c>
